--- a/result/information_from_shopee.xlsx
+++ b/result/information_from_shopee.xlsx
@@ -463,63 +463,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://down-id.img.susercontent.com/file/id-11134207-8224q-mgn58thk9hced4</t>
+          <t>https://down-id.img.susercontent.com/file/9fba4be140a535f2ad57c8829fe36a80</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Victus Laptop Gaming HP AMD Ryzen 7 NVIDIA GeForce RTX 3050 16GB RAM 512GB SSD Silver Free Windows 11 Home 15.6 Inch 144Hz Garansi 2 Tahun Promo Murah Gratis Ongkir Official Non Second</t>
+          <t>Miniso Official Boneka Small Penguin Plush Toy Boneka Lucu mainan anak boneka lucu lembut boneka gemoy boneka import boneka anak Hadiah Ulang Tahun Kado anak Kado untuk cewek Hadiah untuk cowok Kado Natal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rp11.739.000</t>
+          <t>Rp47.900</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Extra voucher diskon hingga 1jt
-Voucher SPaylater hingga 1jt
-16GB RAM / 512GB SSD
-15-fb3744AX
-- Color: Mica silver
-- Operating System: Windows 11 Home Single Language
-- Processor: AMD Ryzen™ 7 7445H (up to 4.7 GHz max boost clock, 16 MB L3 cache, 6 cores, 12 threads)
-- Memory: 16 GB DDR5-5600 MT/s (1 x 16 GB)
-- Internal Storage: 512 GB PCIe® Gen4 NVMe™ M.2 SSD
-- Display: 39.6 cm (15.6") diagonal FHD display
-- Webcam: HP Wide Vision 720p HD camera with temporal noise reduction and integrated dual array digital microphones
-- Keyboard: Full-size, backlit, moonstone grey keyboard with numeric keypad
-- Wireless: Realtek Wi-Fi 6 (2x2) and Bluetooth® 5.4 wireless card
-*Battery life will vary depending on configuration and maximum capacity will naturally decrease with time and usage
-- Dimensions: 35.79 x 25.5 x 2.35 cm
-- Weight: 2.29 kg
-- Processor Family: AMD Ryzen™ 7 processor
-- Graphic: NVIDIA® GeForce RTX™ 3050 Laptop GPU (6 GB GDDR6 dedicated)
-- Pointing Device: HP Imagepad;Precision Touchpad support
-- Audio Features: DTS:X® Ultra;Dual speakers;HP Audio Boost
-- Power Supply Type: 120 W AC power adapter
-- Backlit keyboard: backlit
-- Warranty: 2 years
-What's in the box:
-- Unit Laptop
-- Charger / Pengisi Daya
-- Kartu Garansi
-- Dus Laptop
-Note:
-- Terdapat perbedaan warna produk asli dengan produk yang tertera di foto dikarenakan oleh perbedaan warna kontras pada gambar
-- Permintaan faktur pajak dapat dilakukan maksimal 5 hari setelah tanggal pembelian
-Pengiriman dilakukan di hari kerja Senin - Jumat. Pesanan di hari Sabtu, Minggu, atau hari libur akan dikirim di hari kerja berikutnya.
-- Pesanan dengan pengiriman reguler setelah jam 16.30 WIB akan dikirim di hari kerja berikutnya.
-- Pesanan dengan pengiriman instant / sameday sebelum jam 14.00 WIB akan diproses hari yang sama.
-Informasi Penting:
-- Segala bentuk komunikasi terkait pengembalian produk, pertanyaan produk, keluhan, atau informasi lainnya hanya akan dilayani melalui fitur chat resmi di aplikasi Shopee pada akun HP Official Store.
-- Apabila Anda menerima pesan dari seseorang atau pihak yang mengatasnamakan HP Official Store di luar aplikasi Shopee mohon pastikan kebenarannya dengan mengkonfirmasi langsung melalui fitur chat pada akun resmi HP Official Store di aplikasi Shopee.</t>
+          <t>Miniso Official Product
+Small Penguin Plush Toy
+Deskripsi:
+1. 2 Variasi : Abu-abu &amp; Biru
+2. Bahan :
+Fabric: Cover: 93% Polyester, 7% Spandex
+Filling: 100% Polyester
+3. Ukuran : 28/30/43 cm
+4. Efek dekoratif yang baik, nyaman dan indah.
+5. Nyaman Dipeluk dan di jadikan sebagai bantal</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>KOTA JAKARTA UTARA</t>
+          <t>KAB. KARAWANG</t>
         </is>
       </c>
     </row>
